--- a/hisoblar.xlsx
+++ b/hisoblar.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="172">
   <si>
     <t/>
   </si>
@@ -26,187 +26,508 @@
     <t>Balans</t>
   </si>
   <si>
-    <t>BANK HISOBI</t>
-  </si>
-  <si>
-    <t>DO`KON 1/40</t>
-  </si>
-  <si>
-    <t>XARIDOR</t>
-  </si>
-  <si>
-    <t>3/85 ABDUVOSIQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERCHATKA DOKON </t>
-  </si>
-  <si>
-    <t>LALI  OPA 1-130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-89 MUZAFFAR AKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUDRAT AKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHROR AKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMURAY DOKON </t>
-  </si>
-  <si>
-    <t>1-30</t>
-  </si>
-  <si>
-    <t>BUTILKA FIRMA</t>
-  </si>
-  <si>
-    <t>4  109 POL LATTA</t>
-  </si>
-  <si>
-    <t>IKROM AKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LASKA FIRMA </t>
-  </si>
-  <si>
-    <t>3-70</t>
-  </si>
-  <si>
-    <t>3-70--DOKON</t>
-  </si>
-  <si>
-    <t>4-11  JALOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOQIMA GUBKA </t>
-  </si>
-  <si>
-    <t>AZAM AKA SURXONDARYO</t>
-  </si>
-  <si>
-    <t>1-39 OLIM AKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAXODIR AKA XARIDOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-72 BOTIR </t>
-  </si>
-  <si>
-    <t>1 132 TOLQIM AKA</t>
-  </si>
-  <si>
-    <t>TOJIDDIN AKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHOHRUH AKA KLENT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUHABBAT OPA YANGI YOL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-52 BEKNAZAR </t>
-  </si>
-  <si>
-    <t>QOCHQOR  AKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAMSHID AKA SAMARQAND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-44 SUNNAT AKA &amp; SHERZOD AKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONYOR AKA ISH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUSNIDDIN AKA KLENT YUNUSOBOD </t>
-  </si>
-  <si>
-    <t>1 46 DOKON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITORA SIRDARYO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUSRATULLOH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOHIRA OPA KLENT BEK BARAKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZIZBEK AKA KLENT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINORA OPA </t>
-  </si>
-  <si>
-    <t>ABDUMALIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-116 XUSAN AKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-77 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHIQMAGAN TOVARLAR ZARURYAT UCHUN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASUR AKA KLENT YUNUSOBOD </t>
-  </si>
-  <si>
-    <t>KURS TAFOVUTLARI</t>
-  </si>
-  <si>
     <t>SARMOYA</t>
   </si>
   <si>
-    <t xml:space="preserve">ODIL AKA PODVAL KLENT </t>
-  </si>
-  <si>
-    <t>TOPA OLMADIM</t>
-  </si>
-  <si>
-    <t>CHEGIRMA HISOBI</t>
-  </si>
-  <si>
-    <t>4-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONNA CHOTKA FIRMA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONA KLENT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMIN AKA DEXLAFOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILYOS  AKA  4-27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAXTIYOR AKA ZAJIGALKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YODGOR AKA CHORSU </t>
-  </si>
-  <si>
-    <t>FARXOD AKA 7-106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OYBEK AKA YUMUS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-111  IBROHIM AKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NURALI AKA YUNUSOBOD </t>
+    <t>3-85 BEST PARFUMERY</t>
+  </si>
+  <si>
+    <t>3-85 KASSA</t>
+  </si>
+  <si>
+    <t>3-85 Keldi-ketdi</t>
+  </si>
+  <si>
+    <t>3-85 Foyda</t>
+  </si>
+  <si>
+    <t>3-85 Zarar</t>
+  </si>
+  <si>
+    <t>3-85 Xaridor</t>
+  </si>
+  <si>
+    <t>3-85 Chegirma</t>
+  </si>
+  <si>
+    <t>3-85 Bank</t>
+  </si>
+  <si>
+    <t>3-85 Bank xarajatlari</t>
+  </si>
+  <si>
+    <t>1-40 BEST PARFUMERY</t>
+  </si>
+  <si>
+    <t>1-40 Pul hisobi</t>
+  </si>
+  <si>
+    <t>1-40 Foyda</t>
+  </si>
+  <si>
+    <t>1-40 Zarar</t>
+  </si>
+  <si>
+    <t>1-40 Xaridor</t>
+  </si>
+  <si>
+    <t>1-40 Chegirma</t>
+  </si>
+  <si>
+    <t>1-40 Bank</t>
+  </si>
+  <si>
+    <t>1-40 Bank xarajatlari</t>
+  </si>
+  <si>
+    <t>8-78 BEST PARFUMERY</t>
+  </si>
+  <si>
+    <t>8-78 Pul hisobi</t>
+  </si>
+  <si>
+    <t>8-78 Foyda</t>
+  </si>
+  <si>
+    <t>1-40 Pul hisobi 2</t>
+  </si>
+  <si>
+    <t>3-85 KASSA  2 SIROJIDDIN</t>
+  </si>
+  <si>
+    <t>1-104 Golib  5</t>
+  </si>
+  <si>
+    <t>O'chirilgah hisob</t>
+  </si>
+  <si>
+    <t>1-110 Zokir aka    5</t>
+  </si>
+  <si>
+    <t>1-12 Elyor aka   5</t>
+  </si>
+  <si>
+    <t>1-120 Dilshod aka   5</t>
+  </si>
+  <si>
+    <t>1-122 Asil aka    5</t>
+  </si>
+  <si>
+    <t>2/18   5</t>
+  </si>
+  <si>
+    <t>2/76  TEPA   5</t>
+  </si>
+  <si>
+    <t>2/93    5</t>
+  </si>
+  <si>
+    <t>2-13 Doniyor   5</t>
+  </si>
+  <si>
+    <t>2-54 Faxriddin  5</t>
+  </si>
+  <si>
+    <t>2-65 Nuriddin    5</t>
+  </si>
+  <si>
+    <t>3-112 Nodir     5</t>
+  </si>
+  <si>
+    <t>3-48 Doron aka   5</t>
+  </si>
+  <si>
+    <t>SKLAD 01</t>
+  </si>
+  <si>
+    <t>3-112  LUTFULAKA   5</t>
+  </si>
+  <si>
+    <t>3-33 Nosir     5</t>
+  </si>
+  <si>
+    <t>3-56 Aziz    5</t>
+  </si>
+  <si>
+    <t>3-56 FARXOD AKA 5</t>
+  </si>
+  <si>
+    <t>3-68 Kozim aka   5</t>
+  </si>
+  <si>
+    <t>3-84 Komliddin    5</t>
+  </si>
+  <si>
+    <t>3-89 Aziz aka   5</t>
+  </si>
+  <si>
+    <t>4/101  5</t>
+  </si>
+  <si>
+    <t>4/103  5</t>
+  </si>
+  <si>
+    <t>4/62  5</t>
+  </si>
+  <si>
+    <t>4/99  5</t>
+  </si>
+  <si>
+    <t>4-100 Jorabek aka   5</t>
+  </si>
+  <si>
+    <t>4-12 ELYOR   5</t>
+  </si>
+  <si>
+    <t>4-16 Abdurozo aka       5</t>
+  </si>
+  <si>
+    <t>4-68 Sherzod Aka   5</t>
+  </si>
+  <si>
+    <t>4-74 Bahtiyor aka 5</t>
+  </si>
+  <si>
+    <t>4-74 Bobir 2.    5</t>
+  </si>
+  <si>
+    <t>4-86 ILOSAKA    5</t>
+  </si>
+  <si>
+    <t>ALISHER /ALI   5</t>
+  </si>
+  <si>
+    <t>Anvar aka Qo'qon    5</t>
+  </si>
+  <si>
+    <t>AQIL AKA  5</t>
+  </si>
+  <si>
+    <t>ASOMIDDIN AKA  5</t>
+  </si>
+  <si>
+    <t>DOVRON  3 BLOK 2049 DOKON  5</t>
+  </si>
+  <si>
+    <t>ISMOIL AKA  5</t>
+  </si>
+  <si>
+    <t>Isoq Samarqand  5</t>
+  </si>
+  <si>
+    <t>Joxongir Qarshi    5</t>
+  </si>
+  <si>
+    <t>K -128 IZATILA   5</t>
+  </si>
+  <si>
+    <t>Kiosk 186 Abdumalik   5</t>
+  </si>
+  <si>
+    <t>Maksud (karmashka)   5</t>
+  </si>
+  <si>
+    <t>MARUFXON  5</t>
+  </si>
+  <si>
+    <t>MIR ABDULLOX KLENT 1/40</t>
+  </si>
+  <si>
+    <t>NODIR A.B.C.  5</t>
+  </si>
+  <si>
+    <t>Peramtir  -21     5</t>
+  </si>
+  <si>
+    <t>Peramtir  -25       5</t>
+  </si>
+  <si>
+    <t>Pod 1-12 Murodaka  5</t>
+  </si>
+  <si>
+    <t>pod 1-26  To'lqin aka  5</t>
+  </si>
+  <si>
+    <t>Pod 1-6     5</t>
+  </si>
+  <si>
+    <t>Pod 1-7 XUSNIDDIN 5</t>
+  </si>
+  <si>
+    <t>pod -18  Dilshod    5</t>
+  </si>
+  <si>
+    <t>podval 99      5</t>
+  </si>
+  <si>
+    <t>Sadula Abu Saxi   5</t>
+  </si>
+  <si>
+    <t>SANJAR AKA MARI MALOKO 5</t>
+  </si>
+  <si>
+    <t>SHOMUROD QATORTOL   5</t>
+  </si>
+  <si>
+    <t>Tepa 1-44 Nurbek    5</t>
+  </si>
+  <si>
+    <t>XASAN AKA ISTIROHAT  5</t>
+  </si>
+  <si>
+    <t>ZAYNIDDIN ALYASKIY  5</t>
+  </si>
+  <si>
+    <t>NURIDDIN 3/85 PAMPERS 40</t>
+  </si>
+  <si>
+    <t>XARAJATLAR UCHUN 1/40</t>
+  </si>
+  <si>
+    <t>ASOSIY VOSITALAR UCHUN 40</t>
+  </si>
+  <si>
+    <t>AHROR AKA SAVANNAX  40</t>
+  </si>
+  <si>
+    <t>OYLIK HISOBI 40</t>
+  </si>
+  <si>
+    <t>OZIQ OVQAT HARAJATLARI 40</t>
+  </si>
+  <si>
+    <t>A'ZAM AKA SURXANDARYO 40</t>
+  </si>
+  <si>
+    <t>SHERZOD AKA PERFETTO FIRMA  40</t>
+  </si>
+  <si>
+    <t>NURIDDIN 3-85   *5</t>
+  </si>
+  <si>
+    <t>SARVAR *40</t>
+  </si>
+  <si>
+    <t>ABDUMALIK AKA MUHASIB *40</t>
+  </si>
+  <si>
+    <t>SAID OLIM AKA 1/39 40</t>
+  </si>
+  <si>
+    <t>SHOHRUR AKA KLENT 40</t>
+  </si>
+  <si>
+    <t>DONI AKA *40</t>
+  </si>
+  <si>
+    <t>HUSNIDDIN AKA YUNUSOBOD  40</t>
+  </si>
+  <si>
+    <t>4-66   5</t>
+  </si>
+  <si>
+    <t>BUGALTERIYA HISOBI UCHUN 40</t>
+  </si>
+  <si>
+    <t>ILMIDDIN AKA KADESHVA 40</t>
+  </si>
+  <si>
+    <t>SITORA OPA JIZZAX 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALISHER AKA YANGIYOL </t>
+  </si>
+  <si>
+    <t>ELEGTR ENERGIYASI 1/40</t>
+  </si>
+  <si>
+    <t>DOKON IJARASI 1/40</t>
+  </si>
+  <si>
+    <t>JASUR AKA YUNUSOBOD 40</t>
+  </si>
+  <si>
+    <t>BEGZOD AKA TURK 40</t>
+  </si>
+  <si>
+    <t>ILYOS KLENT PAMPERS</t>
+  </si>
+  <si>
+    <t>BOTIR BANK 5</t>
+  </si>
+  <si>
+    <t>KARTA HISOBI 1/40</t>
+  </si>
+  <si>
+    <t>DILBAR OPA BUXORO 40</t>
+  </si>
+  <si>
+    <t>QOBIL AKA 5</t>
+  </si>
+  <si>
+    <t>SPLAT FIRMA 40</t>
+  </si>
+  <si>
+    <t>JAHONGIR AKA 1/68 40</t>
+  </si>
+  <si>
+    <t>SOHIBA OPA ABU SAHIY 40</t>
+  </si>
+  <si>
+    <t>SHERZOD AKA (C1) 40</t>
+  </si>
+  <si>
+    <t>NODIR AKA CLEAR 40</t>
+  </si>
+  <si>
+    <t>DILSHOD AKA NAZARBEK 40</t>
+  </si>
+  <si>
+    <t>3-85 XARAJATLAR</t>
+  </si>
+  <si>
+    <t>1-40 KUNDALIK XARAJATLAR</t>
+  </si>
+  <si>
+    <t>OYLIK MAOSH</t>
+  </si>
+  <si>
+    <t>NURIDDIN OYLIK  *5</t>
+  </si>
+  <si>
+    <t>SIROJIDDIN OYLIK  *5</t>
+  </si>
+  <si>
+    <t>HUSAN OYLIK  *5</t>
+  </si>
+  <si>
+    <t>TEMUR OYLIK  *5</t>
+  </si>
+  <si>
+    <t>AHMAD OYLIK  *5</t>
+  </si>
+  <si>
+    <t>ABDUBORIY KERASYS/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROKTER FIRMA 40 </t>
+  </si>
+  <si>
+    <t>ZAYNOBIDDIN *5 plastik</t>
+  </si>
+  <si>
+    <t>Abduvosik *5</t>
+  </si>
+  <si>
+    <t>Yunusali   5</t>
+  </si>
+  <si>
+    <t>1/54 ABDUMALIK AKA 40</t>
+  </si>
+  <si>
+    <t>BONNA FIRMA 40</t>
+  </si>
+  <si>
+    <t>SIROJIDDIN AKA GRASS  40</t>
+  </si>
+  <si>
+    <t>3-4 Ulugbek</t>
+  </si>
+  <si>
+    <t>Murod  сергили  5</t>
+  </si>
+  <si>
+    <t>Mansur torgovli центор 5</t>
+  </si>
+  <si>
+    <t>2-12 Jamshid aka   5</t>
+  </si>
+  <si>
+    <t>Bugalter .Фарход 5</t>
+  </si>
+  <si>
+    <t>2-116     5</t>
+  </si>
+  <si>
+    <t>3-85 PUL TAFOVUTLARI</t>
+  </si>
+  <si>
+    <t>1/19 COLGATE FIRMA 40</t>
+  </si>
+  <si>
+    <t>1/24 SILK 40</t>
+  </si>
+  <si>
+    <t>Nodir катортол 5</t>
+  </si>
+  <si>
+    <t>2/65 HENKEL   40</t>
+  </si>
+  <si>
+    <t>marufaka samarqan 5</t>
+  </si>
+  <si>
+    <t>CHIQMAGAN TOVARLAR 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-85 KASSA 3 HUSAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-85 KASSA 4 AHMAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/44 SHERZOD AKA GILLETE </t>
+  </si>
+  <si>
+    <t>Tabriz  5</t>
+  </si>
+  <si>
+    <t>MURODJON AKA DENOV 40</t>
+  </si>
+  <si>
+    <t>SHAMSIDDIN AKA 7/127 40</t>
+  </si>
+  <si>
+    <t>Abdulaziz  ***5</t>
+  </si>
+  <si>
+    <t>8-78 Подваль аренда 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELDOR AKA KLENT 40 </t>
+  </si>
+  <si>
+    <t>Muhammadsodiq    5</t>
+  </si>
+  <si>
+    <t>Aziz аския бозор 5</t>
+  </si>
+  <si>
+    <t>2-95  ZIYOVIDDIN   5</t>
+  </si>
+  <si>
+    <t>AZIZ пойтахт 5</t>
+  </si>
+  <si>
+    <t>1-130   5</t>
+  </si>
+  <si>
+    <t>ABDULAZIZ AKA ANGREN 40</t>
+  </si>
+  <si>
+    <t>2-100 Abdulaziz 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDULAZIZ IW  *40 </t>
+  </si>
+  <si>
+    <t>3/68 AZIZBEK AKA 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-66 Muhiddinaka 5 </t>
+  </si>
+  <si>
+    <t>Tepa 1-79B    5</t>
   </si>
 </sst>
 </file>
@@ -224,40 +545,40 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="8.0"/>
+      <sz val="10.0"/>
       <b val="true"/>
       <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="8.0"/>
+      <sz val="10.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="8.0"/>
+      <sz val="10.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="8.0"/>
+      <sz val="10.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="8.0"/>
+      <sz val="10.0"/>
       <u val="single"/>
       <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="8.0"/>
+      <sz val="10.0"/>
       <u val="single"/>
       <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="10.0"/>
+      <sz val="11.0"/>
       <b val="true"/>
       <color indexed="8"/>
     </font>
@@ -381,14 +702,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.0" customWidth="true"/>
-    <col min="2" max="2" width="29.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.80078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -404,684 +725,1850 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>4</v>
       </c>
       <c r="C2" t="n" s="3">
-        <v>3113.67</v>
+        <v>-1099187.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="3">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>5</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>38100.23</v>
+        <v>105141.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="3">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>6</v>
       </c>
       <c r="C4" t="n" s="3">
-        <v>-3.68</v>
+        <v>6362.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="3">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s" s="4">
         <v>7</v>
       </c>
       <c r="C5" t="n" s="3">
-        <v>-16873.76</v>
+        <v>-191.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="3">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s" s="4">
         <v>8</v>
       </c>
       <c r="C6" t="n" s="3">
-        <v>0.83</v>
+        <v>-45619.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="3">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s" s="4">
         <v>9</v>
       </c>
       <c r="C7" t="n" s="3">
-        <v>3.81</v>
+        <v>906.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="3">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" t="s" s="4">
         <v>10</v>
       </c>
       <c r="C8" t="n" s="3">
-        <v>-27.28</v>
+        <v>59.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="3">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" t="s" s="4">
         <v>11</v>
       </c>
       <c r="C9" t="n" s="3">
-        <v>16.22</v>
+        <v>1693.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="3">
-        <v>37.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" t="s" s="4">
         <v>12</v>
       </c>
       <c r="C10" t="n" s="3">
-        <v>0.09</v>
+        <v>66099.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="3">
-        <v>39.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" t="s" s="4">
         <v>13</v>
       </c>
       <c r="C11" t="n" s="3">
-        <v>-1054.11</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="3">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
       <c r="B12" t="s" s="4">
         <v>14</v>
       </c>
       <c r="C12" t="n" s="3">
-        <v>0.05</v>
+        <v>65827.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="3">
-        <v>41.0</v>
+        <v>16.0</v>
       </c>
       <c r="B13" t="s" s="4">
         <v>15</v>
       </c>
       <c r="C13" t="n" s="3">
-        <v>-21.75</v>
+        <v>956.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="3">
-        <v>44.0</v>
+        <v>18.0</v>
       </c>
       <c r="B14" t="s" s="4">
         <v>16</v>
       </c>
       <c r="C14" t="n" s="3">
-        <v>28.37</v>
+        <v>-69284.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="3">
-        <v>50.0</v>
+        <v>19.0</v>
       </c>
       <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
       <c r="C15" t="n" s="3">
-        <v>-27.12</v>
+        <v>388.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="3">
-        <v>53.0</v>
+        <v>20.0</v>
       </c>
       <c r="B16" t="s" s="4">
         <v>18</v>
       </c>
       <c r="C16" t="n" s="3">
-        <v>-26.86</v>
+        <v>-68.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="3">
-        <v>58.0</v>
+        <v>21.0</v>
       </c>
       <c r="B17" t="s" s="4">
         <v>19</v>
       </c>
       <c r="C17" t="n" s="3">
-        <v>-1.51</v>
+        <v>336.59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="3">
-        <v>59.0</v>
+        <v>22.0</v>
       </c>
       <c r="B18" t="s" s="4">
         <v>20</v>
       </c>
       <c r="C18" t="n" s="3">
-        <v>0.02</v>
+        <v>8631.66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="3">
-        <v>62.0</v>
+        <v>23.0</v>
       </c>
       <c r="B19" t="s" s="4">
         <v>21</v>
       </c>
       <c r="C19" t="n" s="3">
-        <v>0.29</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="3">
-        <v>63.0</v>
+        <v>28.0</v>
       </c>
       <c r="B20" t="s" s="4">
         <v>22</v>
       </c>
       <c r="C20" t="n" s="3">
-        <v>-8.49</v>
+        <v>33562.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="3">
-        <v>79.0</v>
+        <v>29.0</v>
       </c>
       <c r="B21" t="s" s="4">
         <v>23</v>
       </c>
       <c r="C21" t="n" s="3">
-        <v>6.67</v>
+        <v>63.57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="3">
-        <v>83.0</v>
+        <v>31.0</v>
       </c>
       <c r="B22" t="s" s="4">
         <v>24</v>
       </c>
       <c r="C22" t="n" s="3">
-        <v>2335.81</v>
+        <v>-1335.84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="3">
-        <v>92.0</v>
+        <v>41.0</v>
       </c>
       <c r="B23" t="s" s="4">
         <v>25</v>
       </c>
       <c r="C23" t="n" s="3">
-        <v>0.02</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="3">
-        <v>97.0</v>
+        <v>42.0</v>
       </c>
       <c r="B24" t="s" s="4">
         <v>26</v>
       </c>
       <c r="C24" t="n" s="3">
-        <v>4.91</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="3">
-        <v>101.0</v>
+        <v>43.0</v>
       </c>
       <c r="B25" t="s" s="4">
         <v>27</v>
       </c>
       <c r="C25" t="n" s="3">
-        <v>-6.51</v>
+        <v>1969.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="3">
-        <v>113.0</v>
+        <v>44.0</v>
       </c>
       <c r="B26" t="s" s="4">
         <v>28</v>
       </c>
       <c r="C26" t="n" s="3">
-        <v>1.13</v>
+        <v>1582.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="3">
-        <v>116.0</v>
+        <v>45.0</v>
       </c>
       <c r="B27" t="s" s="4">
         <v>29</v>
       </c>
       <c r="C27" t="n" s="3">
-        <v>27.43</v>
+        <v>371.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="3">
-        <v>133.0</v>
+        <v>46.0</v>
       </c>
       <c r="B28" t="s" s="4">
         <v>30</v>
       </c>
       <c r="C28" t="n" s="3">
-        <v>1.9</v>
+        <v>505.88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="3">
-        <v>139.0</v>
+        <v>47.0</v>
       </c>
       <c r="B29" t="s" s="4">
         <v>31</v>
       </c>
       <c r="C29" t="n" s="3">
-        <v>14.29</v>
+        <v>6472.19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="3">
-        <v>140.0</v>
+        <v>48.0</v>
       </c>
       <c r="B30" t="s" s="4">
         <v>32</v>
       </c>
       <c r="C30" t="n" s="3">
-        <v>-0.06</v>
+        <v>265.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="3">
-        <v>143.0</v>
+        <v>50.0</v>
       </c>
       <c r="B31" t="s" s="4">
         <v>33</v>
       </c>
       <c r="C31" t="n" s="3">
-        <v>-101.89</v>
+        <v>178.81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="3">
-        <v>144.0</v>
+        <v>52.0</v>
       </c>
       <c r="B32" t="s" s="4">
         <v>34</v>
       </c>
       <c r="C32" t="n" s="3">
-        <v>-0.94</v>
+        <v>-353.25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="3">
-        <v>149.0</v>
+        <v>53.0</v>
       </c>
       <c r="B33" t="s" s="4">
         <v>35</v>
       </c>
       <c r="C33" t="n" s="3">
-        <v>-53.88</v>
+        <v>50.64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="3">
-        <v>151.0</v>
+        <v>54.0</v>
       </c>
       <c r="B34" t="s" s="4">
         <v>36</v>
       </c>
       <c r="C34" t="n" s="3">
-        <v>126.41</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="3">
-        <v>157.0</v>
+        <v>55.0</v>
       </c>
       <c r="B35" t="s" s="4">
         <v>37</v>
       </c>
       <c r="C35" t="n" s="3">
-        <v>361.5</v>
+        <v>3477.83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="3">
-        <v>161.0</v>
+        <v>56.0</v>
       </c>
       <c r="B36" t="s" s="4">
         <v>38</v>
       </c>
       <c r="C36" t="n" s="3">
-        <v>44.72</v>
+        <v>2232.26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="3">
-        <v>166.0</v>
+        <v>57.0</v>
       </c>
       <c r="B37" t="s" s="4">
         <v>39</v>
       </c>
       <c r="C37" t="n" s="3">
-        <v>120.0</v>
+        <v>53.95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="3">
-        <v>175.0</v>
+        <v>58.0</v>
       </c>
       <c r="B38" t="s" s="4">
         <v>40</v>
       </c>
       <c r="C38" t="n" s="3">
-        <v>100.1</v>
+        <v>379.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="3">
-        <v>176.0</v>
+        <v>61.0</v>
       </c>
       <c r="B39" t="s" s="4">
         <v>41</v>
       </c>
       <c r="C39" t="n" s="3">
-        <v>7.74</v>
+        <v>604204.29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="3">
-        <v>177.0</v>
+        <v>62.0</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C40" t="n" s="3">
-        <v>-27.17</v>
+        <v>515.96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="3">
-        <v>178.0</v>
+        <v>64.0</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="n" s="3">
-        <v>37.74</v>
+        <v>560.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="3">
-        <v>184.0</v>
+        <v>65.0</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="n" s="3">
-        <v>484.06</v>
+        <v>4175.48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="3">
-        <v>15.0</v>
+        <v>66.0</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="n" s="3">
-        <v>661.3</v>
+        <v>1392.63</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="3">
-        <v>191.0</v>
+        <v>67.0</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="n" s="3">
-        <v>-1752.66</v>
+        <v>3015.55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="3">
-        <v>192.0</v>
+        <v>69.0</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="n" s="3">
-        <v>0.02</v>
+        <v>292.65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="3">
-        <v>109.0</v>
+        <v>70.0</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="n" s="3">
-        <v>-351.54</v>
+        <v>208.88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="3">
-        <v>196.0</v>
+        <v>71.0</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n" s="3">
-        <v>18.87</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="3">
-        <v>19.0</v>
+        <v>72.0</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n" s="3">
-        <v>-5.85</v>
+        <v>603.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="3">
-        <v>1.0</v>
+        <v>73.0</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="n" s="3">
-        <v>-24903.11</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="3">
-        <v>198.0</v>
+        <v>74.0</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="n" s="3">
-        <v>6.23</v>
+        <v>596.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="3">
-        <v>42.0</v>
+        <v>77.0</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="n" s="3">
-        <v>-84.23</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="3">
-        <v>7.0</v>
+        <v>78.0</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" t="n" s="3">
-        <v>97.9</v>
+        <v>351.57</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="3">
-        <v>200.0</v>
+        <v>79.0</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="n" s="3">
-        <v>-44.72</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="3">
-        <v>209.0</v>
+        <v>80.0</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="n" s="3">
-        <v>-40.71</v>
+        <v>616.88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="3">
-        <v>210.0</v>
+        <v>81.0</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" t="n" s="3">
-        <v>8.77</v>
+        <v>3651.89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="3">
-        <v>212.0</v>
+        <v>82.0</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" t="n" s="3">
-        <v>0.93</v>
+        <v>21569.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="3">
-        <v>213.0</v>
+        <v>83.0</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" t="n" s="3">
-        <v>364.01</v>
+        <v>352.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="3">
-        <v>215.0</v>
+        <v>84.0</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" t="n" s="3">
-        <v>-0.08</v>
+        <v>-220.96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="3">
-        <v>216.0</v>
+        <v>85.0</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="n" s="3">
-        <v>0.28</v>
+        <v>11065.35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="3">
-        <v>217.0</v>
+        <v>86.0</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="n" s="3">
-        <v>360.91</v>
+        <v>2282.82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="3">
-        <v>220.0</v>
+        <v>87.0</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="n" s="3">
-        <v>-0.05</v>
+        <v>2520.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="3">
-        <v>222.0</v>
+        <v>88.0</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" t="n" s="3">
-        <v>0.02</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="3">
+        <v>91.0</v>
+      </c>
+      <c r="B63" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="C63" t="n" s="3">
+        <v>-3.98</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="3">
+        <v>92.0</v>
+      </c>
+      <c r="B64" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="C64" t="n" s="3">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="B65" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C65" t="n" s="3">
+        <v>258.03</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="3">
+        <v>94.0</v>
+      </c>
+      <c r="B66" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="C66" t="n" s="3">
+        <v>2319.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="3">
+        <v>95.0</v>
+      </c>
+      <c r="B67" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="C67" t="n" s="3">
+        <v>482.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="3">
+        <v>96.0</v>
+      </c>
+      <c r="B68" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="C68" t="n" s="3">
+        <v>306.6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="3">
+        <v>97.0</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="C69" t="n" s="3">
+        <v>308.26</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="3">
+        <v>98.0</v>
+      </c>
+      <c r="B70" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="C70" t="n" s="3">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="B71" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="C71" t="n" s="3">
+        <v>14096.12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="3">
+        <v>101.0</v>
+      </c>
+      <c r="B72" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C72" t="n" s="3">
+        <v>574.8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="3">
+        <v>102.0</v>
+      </c>
+      <c r="B73" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="C73" t="n" s="3">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="3">
+        <v>103.0</v>
+      </c>
+      <c r="B74" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="C74" t="n" s="3">
+        <v>236.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="3">
+        <v>104.0</v>
+      </c>
+      <c r="B75" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="C75" t="n" s="3">
+        <v>384.4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="3">
+        <v>105.0</v>
+      </c>
+      <c r="B76" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="C76" t="n" s="3">
+        <v>755.4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="3">
+        <v>106.0</v>
+      </c>
+      <c r="B77" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="C77" t="n" s="3">
+        <v>692.4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="3">
+        <v>107.0</v>
+      </c>
+      <c r="B78" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="C78" t="n" s="3">
+        <v>944.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="3">
+        <v>108.0</v>
+      </c>
+      <c r="B79" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C79" t="n" s="3">
+        <v>733.68</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="3">
+        <v>109.0</v>
+      </c>
+      <c r="B80" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="C80" t="n" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="3">
+        <v>110.0</v>
+      </c>
+      <c r="B81" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="C81" t="n" s="3">
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="3">
+        <v>111.0</v>
+      </c>
+      <c r="B82" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="C82" t="n" s="3">
+        <v>3514.37</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="3">
+        <v>112.0</v>
+      </c>
+      <c r="B83" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="C83" t="n" s="3">
+        <v>175.68</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="3">
+        <v>115.0</v>
+      </c>
+      <c r="B84" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="C84" t="n" s="3">
+        <v>256.4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="3">
+        <v>116.0</v>
+      </c>
+      <c r="B85" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="C85" t="n" s="3">
+        <v>941.85</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="3">
+        <v>117.0</v>
+      </c>
+      <c r="B86" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="C86" t="n" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="3">
+        <v>118.0</v>
+      </c>
+      <c r="B87" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="C87" t="n" s="3">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="3">
+        <v>119.0</v>
+      </c>
+      <c r="B88" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="C88" t="n" s="3">
+        <v>2235.81</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n" s="3">
+        <v>120.0</v>
+      </c>
+      <c r="B89" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="C89" t="n" s="3">
+        <v>-681.86</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n" s="3">
+        <v>121.0</v>
+      </c>
+      <c r="B90" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="C90" t="n" s="3">
+        <v>11328.39</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="3">
+        <v>122.0</v>
+      </c>
+      <c r="B91" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="C91" t="n" s="3">
+        <v>2271.53</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="B92" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="C92" t="n" s="3">
+        <v>2335.81</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="3">
+        <v>125.0</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="C93" t="n" s="3">
+        <v>-47.67</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n" s="3">
+        <v>126.0</v>
+      </c>
+      <c r="B94" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="C94" t="n" s="3">
+        <v>-403.7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n" s="3">
+        <v>127.0</v>
+      </c>
+      <c r="B95" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="C95" t="n" s="3">
+        <v>226.15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="3">
+        <v>128.0</v>
+      </c>
+      <c r="B96" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C96" t="n" s="3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="3">
+        <v>130.0</v>
+      </c>
+      <c r="B97" t="s" s="4">
+        <v>99</v>
+      </c>
+      <c r="C97" t="n" s="3">
+        <v>-961.31</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="3">
+        <v>132.0</v>
+      </c>
+      <c r="B98" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="C98" t="n" s="3">
+        <v>62.93</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="3">
+        <v>133.0</v>
+      </c>
+      <c r="B99" t="s" s="4">
+        <v>101</v>
+      </c>
+      <c r="C99" t="n" s="3">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="3">
+        <v>134.0</v>
+      </c>
+      <c r="B100" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="C100" t="n" s="3">
+        <v>122.49</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="3">
+        <v>135.0</v>
+      </c>
+      <c r="B101" t="s" s="4">
+        <v>103</v>
+      </c>
+      <c r="C101" t="n" s="3">
+        <v>221.5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="3">
+        <v>136.0</v>
+      </c>
+      <c r="B102" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="C102" t="n" s="3">
+        <v>788.52</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="3">
+        <v>137.0</v>
+      </c>
+      <c r="B103" t="s" s="4">
+        <v>105</v>
+      </c>
+      <c r="C103" t="n" s="3">
+        <v>151.6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="3">
+        <v>138.0</v>
+      </c>
+      <c r="B104" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="C104" t="n" s="3">
+        <v>148.72</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="3">
+        <v>139.0</v>
+      </c>
+      <c r="B105" t="s" s="4">
+        <v>107</v>
+      </c>
+      <c r="C105" t="n" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="3">
+        <v>141.0</v>
+      </c>
+      <c r="B106" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="C106" t="n" s="3">
+        <v>501.53</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n" s="3">
+        <v>142.0</v>
+      </c>
+      <c r="B107" t="s" s="4">
+        <v>109</v>
+      </c>
+      <c r="C107" t="n" s="3">
+        <v>4598.16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n" s="3">
+        <v>143.0</v>
+      </c>
+      <c r="B108" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="C108" t="n" s="3">
+        <v>8.62</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n" s="3">
+        <v>144.0</v>
+      </c>
+      <c r="B109" t="s" s="4">
+        <v>111</v>
+      </c>
+      <c r="C109" t="n" s="3">
+        <v>-2423.42</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n" s="3">
+        <v>145.0</v>
+      </c>
+      <c r="B110" t="s" s="4">
+        <v>112</v>
+      </c>
+      <c r="C110" t="n" s="3">
+        <v>364.01</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="3">
+        <v>146.0</v>
+      </c>
+      <c r="B111" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="C111" t="n" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="3">
+        <v>148.0</v>
+      </c>
+      <c r="B112" t="s" s="4">
+        <v>114</v>
+      </c>
+      <c r="C112" t="n" s="3">
+        <v>22.66</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="3">
+        <v>149.0</v>
+      </c>
+      <c r="B113" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C113" t="n" s="3">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="3">
+        <v>150.0</v>
+      </c>
+      <c r="B114" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="C114" t="n" s="3">
+        <v>109.04</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="3">
+        <v>151.0</v>
+      </c>
+      <c r="B115" t="s" s="4">
+        <v>117</v>
+      </c>
+      <c r="C115" t="n" s="3">
+        <v>-425.29</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="3">
+        <v>152.0</v>
+      </c>
+      <c r="B116" t="s" s="4">
+        <v>118</v>
+      </c>
+      <c r="C116" t="n" s="3">
+        <v>955.34</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="3">
+        <v>153.0</v>
+      </c>
+      <c r="B117" t="s" s="4">
+        <v>119</v>
+      </c>
+      <c r="C117" t="n" s="3">
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="3">
+        <v>154.0</v>
+      </c>
+      <c r="B118" t="s" s="4">
+        <v>120</v>
+      </c>
+      <c r="C118" t="n" s="3">
+        <v>422.28</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="3">
+        <v>155.0</v>
+      </c>
+      <c r="B119" t="s" s="4">
+        <v>121</v>
+      </c>
+      <c r="C119" t="n" s="3">
+        <v>-223.29</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="3">
+        <v>156.0</v>
+      </c>
+      <c r="B120" t="s" s="4">
+        <v>122</v>
+      </c>
+      <c r="C120" t="n" s="3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="3">
+        <v>158.0</v>
+      </c>
+      <c r="B121" t="s" s="4">
+        <v>123</v>
+      </c>
+      <c r="C121" t="n" s="3">
+        <v>1628.21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="3">
+        <v>159.0</v>
+      </c>
+      <c r="B122" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="C122" t="n" s="3">
+        <v>3189.71</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="3">
+        <v>162.0</v>
+      </c>
+      <c r="B123" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="C123" t="n" s="3">
+        <v>1932.11</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="3">
+        <v>165.0</v>
+      </c>
+      <c r="B124" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="C124" t="n" s="3">
+        <v>54.25</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="3">
+        <v>166.0</v>
+      </c>
+      <c r="B125" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="C125" t="n" s="3">
+        <v>-210.6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="3">
+        <v>167.0</v>
+      </c>
+      <c r="B126" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="C126" t="n" s="3">
+        <v>-302.3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="3">
+        <v>168.0</v>
+      </c>
+      <c r="B127" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="C127" t="n" s="3">
+        <v>-188.56</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="3">
+        <v>169.0</v>
+      </c>
+      <c r="B128" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="C128" t="n" s="3">
+        <v>-143.36</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="B129" t="s" s="4">
+        <v>131</v>
+      </c>
+      <c r="C129" t="n" s="3">
+        <v>-500.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n" s="3">
+        <v>172.0</v>
+      </c>
+      <c r="B130" t="s" s="4">
+        <v>132</v>
+      </c>
+      <c r="C130" t="n" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n" s="3">
+        <v>174.0</v>
+      </c>
+      <c r="B131" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="C131" t="n" s="3">
+        <v>86.65</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n" s="3">
+        <v>177.0</v>
+      </c>
+      <c r="B132" t="s" s="4">
+        <v>134</v>
+      </c>
+      <c r="C132" t="n" s="3">
+        <v>179300.79</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n" s="3">
+        <v>178.0</v>
+      </c>
+      <c r="B133" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="C133" t="n" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n" s="3">
+        <v>181.0</v>
+      </c>
+      <c r="B134" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="C134" t="n" s="3">
+        <v>-62.85</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n" s="3">
+        <v>183.0</v>
+      </c>
+      <c r="B135" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="C135" t="n" s="3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n" s="3">
+        <v>184.0</v>
+      </c>
+      <c r="B136" t="s" s="4">
+        <v>138</v>
+      </c>
+      <c r="C136" t="n" s="3">
+        <v>-4.76</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n" s="3">
+        <v>185.0</v>
+      </c>
+      <c r="B137" t="s" s="4">
+        <v>139</v>
+      </c>
+      <c r="C137" t="n" s="3">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n" s="3">
+        <v>186.0</v>
+      </c>
+      <c r="B138" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="C138" t="n" s="3">
+        <v>274.23</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n" s="3">
+        <v>189.0</v>
+      </c>
+      <c r="B139" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="C139" t="n" s="3">
+        <v>-425.42</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n" s="3">
+        <v>190.0</v>
+      </c>
+      <c r="B140" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="C140" t="n" s="3">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n" s="3">
+        <v>191.0</v>
+      </c>
+      <c r="B141" t="s" s="4">
+        <v>143</v>
+      </c>
+      <c r="C141" t="n" s="3">
+        <v>359.79</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n" s="3">
+        <v>194.0</v>
+      </c>
+      <c r="B142" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="C142" t="n" s="3">
+        <v>278.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n" s="3">
+        <v>195.0</v>
+      </c>
+      <c r="B143" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="C143" t="n" s="3">
+        <v>526.27</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n" s="3">
+        <v>196.0</v>
+      </c>
+      <c r="B144" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="C144" t="n" s="3">
+        <v>-189.72</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="3">
+        <v>197.0</v>
+      </c>
+      <c r="B145" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="C145" t="n" s="3">
+        <v>-92.45</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="3">
+        <v>199.0</v>
+      </c>
+      <c r="B146" t="s" s="4">
+        <v>148</v>
+      </c>
+      <c r="C146" t="n" s="3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="3">
+        <v>200.0</v>
+      </c>
+      <c r="B147" t="s" s="4">
+        <v>149</v>
+      </c>
+      <c r="C147" t="n" s="3">
+        <v>47.94</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n" s="3">
+        <v>201.0</v>
+      </c>
+      <c r="B148" t="s" s="4">
+        <v>150</v>
+      </c>
+      <c r="C148" t="n" s="3">
+        <v>6427.59</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n" s="3">
+        <v>202.0</v>
+      </c>
+      <c r="B149" t="s" s="4">
+        <v>151</v>
+      </c>
+      <c r="C149" t="n" s="3">
+        <v>-941.77</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n" s="3">
+        <v>203.0</v>
+      </c>
+      <c r="B150" t="s" s="4">
+        <v>152</v>
+      </c>
+      <c r="C150" t="n" s="3">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n" s="3">
+        <v>204.0</v>
+      </c>
+      <c r="B151" t="s" s="4">
+        <v>153</v>
+      </c>
+      <c r="C151" t="n" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n" s="3">
+        <v>205.0</v>
+      </c>
+      <c r="B152" t="s" s="4">
+        <v>154</v>
+      </c>
+      <c r="C152" t="n" s="3">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n" s="3">
+        <v>207.0</v>
+      </c>
+      <c r="B153" t="s" s="4">
+        <v>155</v>
+      </c>
+      <c r="C153" t="n" s="3">
+        <v>1226.96</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n" s="3">
+        <v>209.0</v>
+      </c>
+      <c r="B154" t="s" s="4">
+        <v>156</v>
+      </c>
+      <c r="C154" t="n" s="3">
+        <v>-5.13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n" s="3">
+        <v>210.0</v>
+      </c>
+      <c r="B155" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="C155" t="n" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n" s="3">
+        <v>211.0</v>
+      </c>
+      <c r="B156" t="s" s="4">
+        <v>158</v>
+      </c>
+      <c r="C156" t="n" s="3">
+        <v>-558.28</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n" s="3">
+        <v>214.0</v>
+      </c>
+      <c r="B157" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="C157" t="n" s="3">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n" s="3">
+        <v>217.0</v>
+      </c>
+      <c r="B158" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="C158" t="n" s="3">
+        <v>205.94</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n" s="3">
+        <v>219.0</v>
+      </c>
+      <c r="B159" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="C159" t="n" s="3">
+        <v>6906.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n" s="3">
+        <v>220.0</v>
+      </c>
+      <c r="B160" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="C160" t="n" s="3">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n" s="3">
+        <v>221.0</v>
+      </c>
+      <c r="B161" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="C161" t="n" s="3">
+        <v>256.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n" s="3">
+        <v>222.0</v>
+      </c>
+      <c r="B162" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="C162" t="n" s="3">
+        <v>280.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n" s="3">
+        <v>225.0</v>
+      </c>
+      <c r="B163" t="s" s="4">
+        <v>165</v>
+      </c>
+      <c r="C163" t="n" s="3">
+        <v>276.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n" s="3">
+        <v>226.0</v>
+      </c>
+      <c r="B164" t="s" s="4">
+        <v>166</v>
+      </c>
+      <c r="C164" t="n" s="3">
+        <v>26.61</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="3">
         <v>227.0</v>
       </c>
-      <c r="B63" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C63" t="n" s="3">
-        <v>13.02</v>
+      <c r="B165" t="s" s="4">
+        <v>167</v>
+      </c>
+      <c r="C165" t="n" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n" s="3">
+        <v>231.0</v>
+      </c>
+      <c r="B166" t="s" s="4">
+        <v>168</v>
+      </c>
+      <c r="C166" t="n" s="3">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n" s="3">
+        <v>232.0</v>
+      </c>
+      <c r="B167" t="s" s="4">
+        <v>169</v>
+      </c>
+      <c r="C167" t="n" s="3">
+        <v>-55.03</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n" s="3">
+        <v>234.0</v>
+      </c>
+      <c r="B168" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="C168" t="n" s="3">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n" s="3">
+        <v>236.0</v>
+      </c>
+      <c r="B169" t="s" s="4">
+        <v>171</v>
+      </c>
+      <c r="C169" t="n" s="3">
+        <v>330.8</v>
       </c>
     </row>
   </sheetData>
